--- a/teaching/traditional_assets/database/data/egypt/egypt_telecom_wireless.xlsx
+++ b/teaching/traditional_assets/database/data/egypt/egypt_telecom_wireless.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.311</v>
+        <v>0.287</v>
       </c>
       <c r="G2">
-        <v>0.06916140667267809</v>
+        <v>0.1008462623413258</v>
       </c>
       <c r="H2">
-        <v>0.06916140667267809</v>
+        <v>0.1008462623413258</v>
       </c>
       <c r="I2">
-        <v>-0.01397655545536519</v>
+        <v>-0.01593794076163611</v>
       </c>
       <c r="J2">
-        <v>-0.01397655545536519</v>
+        <v>-0.01593794076163611</v>
       </c>
       <c r="K2">
-        <v>-14.7</v>
+        <v>-23.7</v>
       </c>
       <c r="L2">
-        <v>-0.1325518485121731</v>
+        <v>-0.3342736248236953</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>125.3</v>
+        <v>43.3</v>
       </c>
       <c r="V2">
-        <v>0.702354260089686</v>
+        <v>0.2336751214247166</v>
       </c>
       <c r="W2">
-        <v>-0.05143456962911126</v>
+        <v>-0.08485499462943072</v>
       </c>
       <c r="X2">
-        <v>0.1037019143497595</v>
+        <v>0.08643479325601124</v>
       </c>
       <c r="Y2">
-        <v>-0.1551364839788707</v>
+        <v>-0.171289787885442</v>
       </c>
       <c r="Z2">
-        <v>0.6293984108967083</v>
+        <v>0.316235504014273</v>
       </c>
       <c r="AA2">
-        <v>-0.008796821793416574</v>
+        <v>-0.00504014272970562</v>
       </c>
       <c r="AB2">
-        <v>0.09197234959315001</v>
+        <v>0.08013482295821496</v>
       </c>
       <c r="AC2">
-        <v>-0.1007691713865666</v>
+        <v>-0.08517496568792057</v>
       </c>
       <c r="AD2">
-        <v>70.2</v>
+        <v>52</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>70.2</v>
+        <v>52</v>
       </c>
       <c r="AG2">
-        <v>-55.09999999999999</v>
+        <v>8.700000000000003</v>
       </c>
       <c r="AH2">
-        <v>0.2823813354786806</v>
+        <v>0.2191319005478297</v>
       </c>
       <c r="AI2">
-        <v>0.190089358245329</v>
+        <v>0.16</v>
       </c>
       <c r="AJ2">
-        <v>-0.4468775344687753</v>
+        <v>0.04484536082474228</v>
       </c>
       <c r="AK2">
-        <v>-0.2258196721311475</v>
+        <v>0.03088391906283281</v>
       </c>
       <c r="AL2">
-        <v>9.470000000000001</v>
+        <v>8.69</v>
       </c>
       <c r="AM2">
-        <v>9.470000000000001</v>
+        <v>3.449999999999999</v>
       </c>
       <c r="AN2">
-        <v>12.64864864864865</v>
+        <v>9.506398537477148</v>
       </c>
       <c r="AO2">
-        <v>-0.163674762407603</v>
+        <v>-0.1300345224395857</v>
       </c>
       <c r="AP2">
-        <v>-9.927927927927927</v>
+        <v>1.590493601462523</v>
       </c>
       <c r="AQ2">
-        <v>-0.163674762407603</v>
+        <v>-0.327536231884058</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.311</v>
+        <v>0.287</v>
       </c>
       <c r="G3">
-        <v>0.06916140667267809</v>
+        <v>0.1008462623413258</v>
       </c>
       <c r="H3">
-        <v>0.06916140667267809</v>
+        <v>0.1008462623413258</v>
       </c>
       <c r="I3">
-        <v>-0.01397655545536519</v>
+        <v>-0.01593794076163611</v>
       </c>
       <c r="J3">
-        <v>-0.01397655545536519</v>
+        <v>-0.01593794076163611</v>
       </c>
       <c r="K3">
-        <v>-14.7</v>
+        <v>-23.7</v>
       </c>
       <c r="L3">
-        <v>-0.1325518485121731</v>
+        <v>-0.3342736248236953</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>125.3</v>
+        <v>43.3</v>
       </c>
       <c r="V3">
-        <v>0.702354260089686</v>
+        <v>0.2336751214247166</v>
       </c>
       <c r="W3">
-        <v>-0.05143456962911126</v>
+        <v>-0.08485499462943072</v>
       </c>
       <c r="X3">
-        <v>0.1037019143497595</v>
+        <v>0.08643479325601124</v>
       </c>
       <c r="Y3">
-        <v>-0.1551364839788707</v>
+        <v>-0.171289787885442</v>
       </c>
       <c r="Z3">
-        <v>0.6293984108967083</v>
+        <v>0.316235504014273</v>
       </c>
       <c r="AA3">
-        <v>-0.008796821793416574</v>
+        <v>-0.00504014272970562</v>
       </c>
       <c r="AB3">
-        <v>0.09197234959315001</v>
+        <v>0.08013482295821496</v>
       </c>
       <c r="AC3">
-        <v>-0.1007691713865666</v>
+        <v>-0.08517496568792057</v>
       </c>
       <c r="AD3">
-        <v>70.2</v>
+        <v>52</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>70.2</v>
+        <v>52</v>
       </c>
       <c r="AG3">
-        <v>-55.09999999999999</v>
+        <v>8.700000000000003</v>
       </c>
       <c r="AH3">
-        <v>0.2823813354786806</v>
+        <v>0.2191319005478297</v>
       </c>
       <c r="AI3">
-        <v>0.190089358245329</v>
+        <v>0.16</v>
       </c>
       <c r="AJ3">
-        <v>-0.4468775344687753</v>
+        <v>0.04484536082474228</v>
       </c>
       <c r="AK3">
-        <v>-0.2258196721311475</v>
+        <v>0.03088391906283281</v>
       </c>
       <c r="AL3">
-        <v>9.470000000000001</v>
+        <v>8.69</v>
       </c>
       <c r="AM3">
-        <v>9.470000000000001</v>
+        <v>3.449999999999999</v>
       </c>
       <c r="AN3">
-        <v>12.64864864864865</v>
+        <v>9.506398537477148</v>
       </c>
       <c r="AO3">
-        <v>-0.163674762407603</v>
+        <v>-0.1300345224395857</v>
       </c>
       <c r="AP3">
-        <v>-9.927927927927927</v>
+        <v>1.590493601462523</v>
       </c>
       <c r="AQ3">
-        <v>-0.163674762407603</v>
+        <v>-0.327536231884058</v>
       </c>
     </row>
   </sheetData>
